--- a/templates/Budget_Template.xlsx
+++ b/templates/Budget_Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2fc653c6d4474c51/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="479" documentId="8_{9B696197-91AE-4C60-9EEA-46D1F7A0FB97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{82879272-181A-4028-A124-5B0407E9B840}"/>
+  <xr:revisionPtr revIDLastSave="488" documentId="8_{9B696197-91AE-4C60-9EEA-46D1F7A0FB97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{38C5DEFA-ED1D-40E7-836C-9C67023ACFCD}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E780DB9C-E604-423C-A489-BF9A4A4C267E}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E780DB9C-E604-423C-A489-BF9A4A4C267E}"/>
   </bookViews>
   <sheets>
     <sheet name="Template_Debt_Only" sheetId="3" r:id="rId1"/>
@@ -454,7 +454,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -513,15 +513,18 @@
     <xf numFmtId="164" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -559,6 +562,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -881,7 +888,7 @@
   <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -940,10 +947,10 @@
       <c r="A2" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="40" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="28" t="s">
@@ -1107,10 +1114,10 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="36"/>
+      <c r="B8" s="38"/>
       <c r="C8" s="7" t="str">
         <f>IF(SUM($C$10:$C$13)=0,"",SUM($C$10:$C$13))</f>
         <v/>
@@ -1135,10 +1142,10 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="37" t="s">
+      <c r="A9" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="37"/>
+      <c r="B9" s="39"/>
       <c r="C9" s="1" t="s">
         <v>6</v>
       </c>
@@ -1161,8 +1168,8 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="38"/>
-      <c r="B10" s="39"/>
+      <c r="A10" s="36"/>
+      <c r="B10" s="37"/>
       <c r="C10" s="10"/>
       <c r="D10" s="20" t="str">
         <f>IF(ISBLANK($C$10),"",$C$10/$C$8)</f>
@@ -1184,8 +1191,8 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="38"/>
-      <c r="B11" s="39"/>
+      <c r="A11" s="36"/>
+      <c r="B11" s="37"/>
       <c r="C11" s="10"/>
       <c r="D11" s="20" t="str">
         <f>IF(ISBLANK($C$11),"",$C$11/$C$8)</f>
@@ -1207,8 +1214,8 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="38"/>
-      <c r="B12" s="39"/>
+      <c r="A12" s="36"/>
+      <c r="B12" s="37"/>
       <c r="C12" s="10"/>
       <c r="D12" s="20" t="str">
         <f>IF(ISBLANK($C$12),"",$C$12/$C$8)</f>
@@ -1230,8 +1237,8 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="38"/>
-      <c r="B13" s="39"/>
+      <c r="A13" s="36"/>
+      <c r="B13" s="37"/>
       <c r="C13" s="10"/>
       <c r="D13" s="20" t="str">
         <f>IF(ISBLANK($C$13),"",$C$13/$C$8)</f>
@@ -1634,8 +1641,8 @@
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;"-,Bold"&amp;16 Name(s):
-&amp;C&amp;"-,Bold"&amp;16Age(s):&amp;R&amp;"-,Bold"&amp;16Monthy Budget</oddHeader>
+    <oddHeader>&amp;L&amp;"-,Bold"&amp;16 Name(s): 
+&amp;C&amp;"-,Bold"&amp;16Age(s): &amp;R&amp;"-,Bold"&amp;16Monthy Budget</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
@@ -1645,7 +1652,7 @@
   <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1667,7 +1674,7 @@
       </c>
       <c r="B1" s="24">
         <f>IF(SUM($C$10:$C$13)=0,"",SUM($C$10:$C$13))</f>
-        <v>9986</v>
+        <v>7986</v>
       </c>
       <c r="C1" s="25">
         <f>SUM($C$3:$C$5)</f>
@@ -1675,7 +1682,7 @@
       </c>
       <c r="D1" s="26">
         <f>IF(SUM($D$3:$D$5)=0,"",SUM($D$3:$D$5))</f>
-        <v>0.70099038654115764</v>
+        <v>0.8765452041071875</v>
       </c>
       <c r="F1" s="13" t="s">
         <v>2</v>
@@ -1686,7 +1693,7 @@
       </c>
       <c r="H1" s="12">
         <f>IF(SUM($H$3:$H$32)=0,"",SUM($H$3:$H$32))</f>
-        <v>0.57461546164630484</v>
+        <v>0.71852116203355865</v>
       </c>
       <c r="J1" s="6" t="s">
         <v>3</v>
@@ -1697,17 +1704,17 @@
       </c>
       <c r="L1" s="12">
         <f>IF(SUM($L$3:$L$20)=0,"",SUM($L$3:$L$20))</f>
-        <v>3.2042860004005608E-2</v>
+        <v>4.006761833208114E-2</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="40" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="28" t="s">
@@ -1745,7 +1752,7 @@
       </c>
       <c r="D3" s="30">
         <f>IF(SUM($H$3:$H$32)=0,"",SUM($H$3:$H$32))</f>
-        <v>0.57461546164630484</v>
+        <v>0.71852116203355865</v>
       </c>
       <c r="F3" s="14" t="s">
         <v>14</v>
@@ -1755,7 +1762,7 @@
       </c>
       <c r="H3" s="21">
         <f>IFERROR(IF(G3/SUM($C$10:$C$13)=0,"",G3/SUM($C$10:$C$13)),"")</f>
-        <v>0.29040656919687563</v>
+        <v>0.36313548710242927</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>33</v>
@@ -1765,7 +1772,7 @@
       </c>
       <c r="L3" s="21">
         <f>IFERROR(IF(K3/SUM($C$10:$C$13)=0,"",K3/SUM($C$10:$C$13)),"")</f>
-        <v>1.1005407570598839E-3</v>
+        <v>1.3761582769847233E-3</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -1781,7 +1788,7 @@
       </c>
       <c r="D4" s="30">
         <f>IF(SUM($L$3:$L$20)=0,"",SUM($L$3:$L$20))</f>
-        <v>3.2042860004005608E-2</v>
+        <v>4.006761833208114E-2</v>
       </c>
       <c r="F4" s="14" t="s">
         <v>20</v>
@@ -1791,7 +1798,7 @@
       </c>
       <c r="H4" s="21">
         <f t="shared" ref="H4:H32" si="0">IFERROR(IF(G4/SUM($C$10:$C$13)=0,"",G4/SUM($C$10:$C$13)),"")</f>
-        <v>1.8025235329461246E-3</v>
+        <v>2.2539444027047332E-3</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>34</v>
@@ -1801,7 +1808,7 @@
       </c>
       <c r="L4" s="21">
         <f t="shared" ref="L4:L20" si="1">IFERROR(IF(K4/SUM($C$10:$C$13)=0,"",K4/SUM($C$10:$C$13)),"")</f>
-        <v>9.0026036451031446E-4</v>
+        <v>1.1257200100175306E-3</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -1817,7 +1824,7 @@
       </c>
       <c r="D5" s="30">
         <f>IF(SUM($L$24:$L$32)=0,"",SUM($L$24:$L$32))</f>
-        <v>9.4332064890847195E-2</v>
+        <v>0.1179564237415477</v>
       </c>
       <c r="F5" s="14" t="s">
         <v>24</v>
@@ -1837,7 +1844,7 @@
       </c>
       <c r="L5" s="21">
         <f t="shared" si="1"/>
-        <v>1.5021029441217705E-2</v>
+        <v>1.8782870022539443E-2</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1846,7 +1853,7 @@
       </c>
       <c r="B6" s="32">
         <f>IF(SUM($C$10:$C$13)=0,"",SUM($C$10:$C$13)-SUM($B$3:$B$5))</f>
-        <v>2985.91</v>
+        <v>985.90999999999985</v>
       </c>
       <c r="C6" s="33">
         <f>1-SUM($C$3:$C$5)</f>
@@ -1854,7 +1861,7 @@
       </c>
       <c r="D6" s="34">
         <f>IF(SUM($D$3:$D$5)=0,"",1-SUM($D$3:$D$5))</f>
-        <v>0.29900961345884236</v>
+        <v>0.1234547958928125</v>
       </c>
       <c r="F6" s="14" t="s">
         <v>15</v>
@@ -1864,7 +1871,7 @@
       </c>
       <c r="H6" s="21">
         <f t="shared" si="0"/>
-        <v>6.0084117764870819E-2</v>
+        <v>7.5131480090157771E-2</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>43</v>
@@ -1874,7 +1881,7 @@
       </c>
       <c r="L6" s="21">
         <f t="shared" si="1"/>
-        <v>1.5021029441217705E-2</v>
+        <v>1.8782870022539443E-2</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -1887,7 +1894,7 @@
       </c>
       <c r="H7" s="21">
         <f t="shared" si="0"/>
-        <v>5.364510314440217E-2</v>
+        <v>6.7079889807162535E-2</v>
       </c>
       <c r="J7" s="3"/>
       <c r="K7" s="4"/>
@@ -1897,13 +1904,13 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="36"/>
+      <c r="B8" s="38"/>
       <c r="C8" s="7">
         <f>IF(SUM($C$10:$C$13)=0,"",SUM($C$10:$C$13))</f>
-        <v>9986</v>
+        <v>7986</v>
       </c>
       <c r="D8" s="12">
         <f>IF(SUM($D$10:$D$13)=0,"",SUM($D$10:$D$13))</f>
@@ -1917,7 +1924,7 @@
       </c>
       <c r="H8" s="21">
         <f t="shared" si="0"/>
-        <v>1.4119767674744642E-2</v>
+        <v>1.7655897821187077E-2</v>
       </c>
       <c r="J8" s="3"/>
       <c r="K8" s="4"/>
@@ -1927,10 +1934,10 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="37" t="s">
+      <c r="A9" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="37"/>
+      <c r="B9" s="39"/>
       <c r="C9" s="1" t="s">
         <v>6</v>
       </c>
@@ -1945,7 +1952,7 @@
       </c>
       <c r="H9" s="21">
         <f t="shared" si="0"/>
-        <v>1.5021029441217705E-2</v>
+        <v>1.8782870022539443E-2</v>
       </c>
       <c r="J9" s="3"/>
       <c r="K9" s="4"/>
@@ -1955,16 +1962,16 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="38" t="s">
+      <c r="A10" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="39"/>
+      <c r="B10" s="37"/>
       <c r="C10" s="10">
         <v>3262</v>
       </c>
       <c r="D10" s="20">
         <f>IF(ISBLANK($C$10),"",$C$10/$C$8)</f>
-        <v>0.3266573202483477</v>
+        <v>0.40846481342349111</v>
       </c>
       <c r="F10" s="14" t="s">
         <v>21</v>
@@ -1984,16 +1991,16 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="38" t="s">
+      <c r="A11" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="39"/>
+      <c r="B11" s="37"/>
       <c r="C11" s="10">
-        <v>6724</v>
+        <v>4724</v>
       </c>
       <c r="D11" s="20">
         <f>IF(ISBLANK($C$11),"",$C$11/$C$8)</f>
-        <v>0.6733426797516523</v>
+        <v>0.59153518657650894</v>
       </c>
       <c r="F11" s="14" t="s">
         <v>22</v>
@@ -2013,8 +2020,8 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="38"/>
-      <c r="B12" s="39"/>
+      <c r="A12" s="36"/>
+      <c r="B12" s="37"/>
       <c r="C12" s="10"/>
       <c r="D12" s="20" t="str">
         <f>IF(ISBLANK($C$12),"",$C$12/$C$8)</f>
@@ -2028,7 +2035,7 @@
       </c>
       <c r="H12" s="21">
         <f t="shared" si="0"/>
-        <v>1.3018225515722012E-2</v>
+        <v>1.6278487352867518E-2</v>
       </c>
       <c r="J12" s="3"/>
       <c r="K12" s="4"/>
@@ -2038,8 +2045,8 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="38"/>
-      <c r="B13" s="39"/>
+      <c r="A13" s="36"/>
+      <c r="B13" s="37"/>
       <c r="C13" s="10"/>
       <c r="D13" s="20" t="str">
         <f>IF(ISBLANK($C$13),"",$C$13/$C$8)</f>
@@ -2053,7 +2060,7 @@
       </c>
       <c r="H13" s="21">
         <f t="shared" si="0"/>
-        <v>1.5221309833767275E-2</v>
+        <v>1.9033308289506636E-2</v>
       </c>
       <c r="J13" s="3"/>
       <c r="K13" s="4"/>
@@ -2071,7 +2078,7 @@
       </c>
       <c r="H14" s="21">
         <f t="shared" si="0"/>
-        <v>1.9026637292209093E-2</v>
+        <v>2.3791635361883296E-2</v>
       </c>
       <c r="J14" s="3"/>
       <c r="K14" s="4"/>
@@ -2101,7 +2108,7 @@
       </c>
       <c r="H15" s="21">
         <f t="shared" si="0"/>
-        <v>1.5021029441217705E-2</v>
+        <v>1.8782870022539443E-2</v>
       </c>
       <c r="J15" s="3"/>
       <c r="K15" s="4"/>
@@ -2131,7 +2138,7 @@
       </c>
       <c r="H16" s="21">
         <f t="shared" si="0"/>
-        <v>2.4675545764069697E-2</v>
+        <v>3.0855246681692962E-2</v>
       </c>
       <c r="J16" s="3"/>
       <c r="K16" s="4"/>
@@ -2161,7 +2168,7 @@
       </c>
       <c r="H17" s="21">
         <f t="shared" si="0"/>
-        <v>2.5035049068696173E-3</v>
+        <v>3.1304783370899075E-3</v>
       </c>
       <c r="J17" s="3"/>
       <c r="K17" s="4"/>
@@ -2191,7 +2198,7 @@
       </c>
       <c r="H18" s="21">
         <f t="shared" si="0"/>
-        <v>5.0070098137392348E-2</v>
+        <v>6.2609566741798142E-2</v>
       </c>
       <c r="J18" s="3"/>
       <c r="K18" s="4"/>
@@ -2300,7 +2307,7 @@
       </c>
       <c r="L22" s="12">
         <f>IF(SUM($L$24:$L$32)=0,"",SUM($L$24:$L$32))</f>
-        <v>9.4332064890847195E-2</v>
+        <v>0.1179564237415477</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -2343,7 +2350,7 @@
       </c>
       <c r="L24" s="22">
         <f>IFERROR(IF(K24/SUM($C$10:$C$13)=0,"",K24/SUM($C$10:$C$13)),"")</f>
-        <v>4.426196675345484E-2</v>
+        <v>5.5346856999749561E-2</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -2365,7 +2372,7 @@
       </c>
       <c r="L25" s="22">
         <f t="shared" ref="L25:L32" si="2">IFERROR(IF(K25/SUM($C$10:$C$13)=0,"",K25/SUM($C$10:$C$13)),"")</f>
-        <v>5.0070098137392348E-2</v>
+        <v>6.2609566741798142E-2</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -2514,8 +2521,8 @@
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;"-,Bold"&amp;16 Name(s): Person 1/Person 2
-&amp;C&amp;"-,Bold"&amp;16Age(s): 37/41&amp;R&amp;"-,Bold"&amp;16Monthy Budget</oddHeader>
+    <oddHeader>&amp;L&amp;"-,Bold"&amp;16 Name(s): 
+&amp;C&amp;"-,Bold"&amp;16Age(s): &amp;R&amp;"-,Bold"&amp;16Monthy Budget</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
--- a/templates/Budget_Template.xlsx
+++ b/templates/Budget_Template.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2fc653c6d4474c51/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="488" documentId="8_{9B696197-91AE-4C60-9EEA-46D1F7A0FB97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{38C5DEFA-ED1D-40E7-836C-9C67023ACFCD}"/>
+  <xr:revisionPtr revIDLastSave="578" documentId="8_{9B696197-91AE-4C60-9EEA-46D1F7A0FB97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A135F9F0-6730-43CE-B787-4899859C444C}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E780DB9C-E604-423C-A489-BF9A4A4C267E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E780DB9C-E604-423C-A489-BF9A4A4C267E}"/>
   </bookViews>
   <sheets>
     <sheet name="Template_Debt_Only" sheetId="3" r:id="rId1"/>
     <sheet name="Template_Debt_Only_Example" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="48">
   <si>
     <t>Category</t>
   </si>
@@ -90,9 +91,6 @@
     <t>Phone</t>
   </si>
   <si>
-    <t>Cable</t>
-  </si>
-  <si>
     <t>Car</t>
   </si>
   <si>
@@ -126,9 +124,6 @@
     <t>Job 2</t>
   </si>
   <si>
-    <t>Post-Tax Income</t>
-  </si>
-  <si>
     <t>TP Fund</t>
   </si>
   <si>
@@ -172,6 +167,21 @@
   </si>
   <si>
     <t>Personal Loan</t>
+  </si>
+  <si>
+    <t>Gas</t>
+  </si>
+  <si>
+    <t>Electric</t>
+  </si>
+  <si>
+    <t>Internet</t>
+  </si>
+  <si>
+    <t>Water</t>
+  </si>
+  <si>
+    <t>Other Utilies</t>
   </si>
 </sst>
 </file>
@@ -454,7 +464,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -481,13 +491,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -513,6 +519,9 @@
     <xf numFmtId="164" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -522,9 +531,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -546,8 +552,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFF5F5DC"/>
       <color rgb="FFD3D3D3"/>
-      <color rgb="FFF5F5DC"/>
       <color rgb="FF808080"/>
       <color rgb="FF036666"/>
       <color rgb="FFAFD5BC"/>
@@ -887,8 +893,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{596E9CBE-398A-40E9-875B-30ED4812A3CF}">
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -905,18 +911,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="24" t="str">
+      <c r="B1" s="22" t="str">
         <f>IF(SUM($C$10:$C$13)=0,"",SUM($C$10:$C$13))</f>
         <v/>
       </c>
-      <c r="C1" s="25">
+      <c r="C1" s="23">
         <f>SUM($C$3:$C$5)</f>
         <v>1</v>
       </c>
-      <c r="D1" s="26" t="str">
+      <c r="D1" s="24" t="str">
         <f>IF(SUM($D$3:$D$5)=0,"",SUM($D$3:$D$5))</f>
         <v/>
       </c>
@@ -944,16 +950,16 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="26" t="s">
         <v>7</v>
       </c>
       <c r="F2" s="2" t="s">
@@ -976,17 +982,17 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="16" t="str">
+      <c r="B3" s="34" t="str">
         <f>IF(SUM($G$3:$G$32)=0,"",SUM($G$3:$G$32))</f>
         <v/>
       </c>
-      <c r="C3" s="17">
+      <c r="C3" s="16">
         <v>0.5</v>
       </c>
-      <c r="D3" s="30" t="str">
+      <c r="D3" s="28" t="str">
         <f>IF(SUM($H$3:$H$32)=0,"",SUM($H$3:$H$32))</f>
         <v/>
       </c>
@@ -994,90 +1000,90 @@
         <v>14</v>
       </c>
       <c r="G3" s="4"/>
-      <c r="H3" s="21" t="str">
+      <c r="H3" s="19" t="str">
         <f>IFERROR(IF(G3/SUM($C$10:$C$13)=0,"",G3/SUM($C$10:$C$13)),"")</f>
         <v/>
       </c>
       <c r="J3" s="3"/>
       <c r="K3" s="4"/>
-      <c r="L3" s="21" t="str">
+      <c r="L3" s="19" t="str">
         <f>IFERROR(IF(K3/SUM($C$10:$C$13)=0,"",K3/SUM($C$10:$C$13)),"")</f>
         <v/>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="16" t="str">
+      <c r="B4" s="34" t="str">
         <f>IF(SUM($K$3:$K$20)=0,"",SUM($K$3:$K$20))</f>
         <v/>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="16">
         <v>0.3</v>
       </c>
-      <c r="D4" s="30" t="str">
+      <c r="D4" s="28" t="str">
         <f>IF(SUM($L$3:$L$20)=0,"",SUM($L$3:$L$20))</f>
         <v/>
       </c>
       <c r="F4" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G4" s="4"/>
-      <c r="H4" s="21" t="str">
+      <c r="H4" s="19" t="str">
         <f t="shared" ref="H4:H32" si="0">IFERROR(IF(G4/SUM($C$10:$C$13)=0,"",G4/SUM($C$10:$C$13)),"")</f>
         <v/>
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="4"/>
-      <c r="L4" s="21" t="str">
+      <c r="L4" s="19" t="str">
         <f t="shared" ref="L4:L20" si="1">IFERROR(IF(K4/SUM($C$10:$C$13)=0,"",K4/SUM($C$10:$C$13)),"")</f>
         <v/>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="16" t="str">
+      <c r="B5" s="34" t="str">
         <f>IF(SUM($K$24:$K$32)=0,"",SUM($K$24:$K$32))</f>
         <v/>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="16">
         <v>0.2</v>
       </c>
-      <c r="D5" s="30" t="str">
+      <c r="D5" s="28" t="str">
         <f>IF(SUM($L$24:$L$32)=0,"",SUM($L$24:$L$32))</f>
         <v/>
       </c>
       <c r="F5" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G5" s="4"/>
-      <c r="H5" s="21" t="str">
+      <c r="H5" s="19" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="4"/>
-      <c r="L5" s="21" t="str">
+      <c r="L5" s="19" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="32" t="str">
+      <c r="B6" s="30" t="str">
         <f>IF(SUM($C$10:$C$13)=0,"",SUM($C$10:$C$13)-SUM($B$3:$B$5))</f>
         <v/>
       </c>
-      <c r="C6" s="33">
+      <c r="C6" s="31">
         <f>1-SUM($C$3:$C$5)</f>
         <v>0</v>
       </c>
-      <c r="D6" s="34" t="str">
+      <c r="D6" s="32" t="str">
         <f>IF(SUM($D$3:$D$5)=0,"",1-SUM($D$3:$D$5))</f>
         <v/>
       </c>
@@ -1085,13 +1091,13 @@
         <v>15</v>
       </c>
       <c r="G6" s="4"/>
-      <c r="H6" s="21" t="str">
+      <c r="H6" s="19" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J6" s="3"/>
       <c r="K6" s="4"/>
-      <c r="L6" s="21" t="str">
+      <c r="L6" s="19" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -1099,25 +1105,25 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B7" s="5"/>
       <c r="F7" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G7" s="4"/>
-      <c r="H7" s="21" t="str">
+      <c r="H7" s="19" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J7" s="3"/>
       <c r="K7" s="4"/>
-      <c r="L7" s="21" t="str">
+      <c r="L7" s="19" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="38"/>
+      <c r="A8" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="37"/>
       <c r="C8" s="7" t="str">
         <f>IF(SUM($C$10:$C$13)=0,"",SUM($C$10:$C$13))</f>
         <v/>
@@ -1127,25 +1133,25 @@
         <v/>
       </c>
       <c r="F8" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G8" s="4"/>
-      <c r="H8" s="21" t="str">
+      <c r="H8" s="19" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J8" s="3"/>
       <c r="K8" s="4"/>
-      <c r="L8" s="21" t="str">
+      <c r="L8" s="19" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="39" t="s">
+      <c r="A9" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="39"/>
+      <c r="B9" s="38"/>
       <c r="C9" s="1" t="s">
         <v>6</v>
       </c>
@@ -1153,94 +1159,94 @@
         <v>7</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G9" s="4"/>
-      <c r="H9" s="21" t="str">
+      <c r="H9" s="19" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J9" s="3"/>
       <c r="K9" s="4"/>
-      <c r="L9" s="21" t="str">
+      <c r="L9" s="19" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="36"/>
-      <c r="B10" s="37"/>
+      <c r="A10" s="35"/>
+      <c r="B10" s="36"/>
       <c r="C10" s="10"/>
-      <c r="D10" s="20" t="str">
+      <c r="D10" s="18" t="str">
         <f>IF(ISBLANK($C$10),"",$C$10/$C$8)</f>
         <v/>
       </c>
       <c r="F10" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G10" s="4"/>
-      <c r="H10" s="21" t="str">
+      <c r="H10" s="19" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J10" s="3"/>
       <c r="K10" s="4"/>
-      <c r="L10" s="21" t="str">
+      <c r="L10" s="19" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="36"/>
-      <c r="B11" s="37"/>
+      <c r="A11" s="35"/>
+      <c r="B11" s="36"/>
       <c r="C11" s="10"/>
-      <c r="D11" s="20" t="str">
+      <c r="D11" s="18" t="str">
         <f>IF(ISBLANK($C$11),"",$C$11/$C$8)</f>
         <v/>
       </c>
       <c r="F11" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G11" s="4"/>
-      <c r="H11" s="21" t="str">
+      <c r="H11" s="19" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J11" s="3"/>
       <c r="K11" s="4"/>
-      <c r="L11" s="21" t="str">
+      <c r="L11" s="19" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="36"/>
-      <c r="B12" s="37"/>
+      <c r="A12" s="35"/>
+      <c r="B12" s="36"/>
       <c r="C12" s="10"/>
-      <c r="D12" s="20" t="str">
+      <c r="D12" s="18" t="str">
         <f>IF(ISBLANK($C$12),"",$C$12/$C$8)</f>
         <v/>
       </c>
       <c r="F12" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G12" s="4"/>
-      <c r="H12" s="21" t="str">
+      <c r="H12" s="19" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J12" s="3"/>
       <c r="K12" s="4"/>
-      <c r="L12" s="21" t="str">
+      <c r="L12" s="19" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="36"/>
-      <c r="B13" s="37"/>
+      <c r="A13" s="35"/>
+      <c r="B13" s="36"/>
       <c r="C13" s="10"/>
-      <c r="D13" s="20" t="str">
+      <c r="D13" s="18" t="str">
         <f>IF(ISBLANK($C$13),"",$C$13/$C$8)</f>
         <v/>
       </c>
@@ -1248,29 +1254,29 @@
         <v>16</v>
       </c>
       <c r="G13" s="4"/>
-      <c r="H13" s="21" t="str">
+      <c r="H13" s="19" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J13" s="3"/>
       <c r="K13" s="4"/>
-      <c r="L13" s="21" t="str">
+      <c r="L13" s="19" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F14" s="14" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="G14" s="4"/>
-      <c r="H14" s="21" t="str">
+      <c r="H14" s="19" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J14" s="3"/>
       <c r="K14" s="4"/>
-      <c r="L14" s="21" t="str">
+      <c r="L14" s="19" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -1289,16 +1295,16 @@
       </c>
       <c r="D15" s="8"/>
       <c r="F15" s="14" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="G15" s="4"/>
-      <c r="H15" s="21" t="str">
+      <c r="H15" s="19" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J15" s="3"/>
       <c r="K15" s="4"/>
-      <c r="L15" s="21" t="str">
+      <c r="L15" s="19" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -1317,16 +1323,16 @@
         <v>10</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="G16" s="4"/>
-      <c r="H16" s="21" t="str">
+      <c r="H16" s="19" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J16" s="3"/>
       <c r="K16" s="4"/>
-      <c r="L16" s="21" t="str">
+      <c r="L16" s="19" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -1335,16 +1341,18 @@
       <c r="A17" s="3"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
-      <c r="D17" s="18"/>
-      <c r="F17" s="14"/>
+      <c r="D17" s="33"/>
+      <c r="F17" s="14" t="s">
+        <v>46</v>
+      </c>
       <c r="G17" s="4"/>
-      <c r="H17" s="21" t="str">
+      <c r="H17" s="19" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J17" s="3"/>
       <c r="K17" s="4"/>
-      <c r="L17" s="21" t="str">
+      <c r="L17" s="19" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -1353,16 +1361,18 @@
       <c r="A18" s="3"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
-      <c r="D18" s="18"/>
-      <c r="F18" s="14"/>
+      <c r="D18" s="33"/>
+      <c r="F18" s="14" t="s">
+        <v>47</v>
+      </c>
       <c r="G18" s="4"/>
-      <c r="H18" s="21" t="str">
+      <c r="H18" s="19" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J18" s="3"/>
       <c r="K18" s="4"/>
-      <c r="L18" s="21" t="str">
+      <c r="L18" s="19" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -1371,16 +1381,18 @@
       <c r="A19" s="3"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
-      <c r="D19" s="18"/>
-      <c r="F19" s="14"/>
+      <c r="D19" s="33"/>
+      <c r="F19" s="14" t="s">
+        <v>28</v>
+      </c>
       <c r="G19" s="4"/>
-      <c r="H19" s="21" t="str">
+      <c r="H19" s="19" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J19" s="3"/>
       <c r="K19" s="4"/>
-      <c r="L19" s="21" t="str">
+      <c r="L19" s="19" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -1389,16 +1401,16 @@
       <c r="A20" s="3"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
-      <c r="D20" s="18"/>
+      <c r="D20" s="33"/>
       <c r="F20" s="14"/>
       <c r="G20" s="4"/>
-      <c r="H20" s="21" t="str">
+      <c r="H20" s="19" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J20" s="3"/>
       <c r="K20" s="4"/>
-      <c r="L20" s="21" t="str">
+      <c r="L20" s="19" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -1407,10 +1419,10 @@
       <c r="A21" s="3"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
-      <c r="D21" s="18"/>
+      <c r="D21" s="33"/>
       <c r="F21" s="14"/>
       <c r="G21" s="4"/>
-      <c r="H21" s="21" t="str">
+      <c r="H21" s="19" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1419,10 +1431,10 @@
       <c r="A22" s="3"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
-      <c r="D22" s="18"/>
+      <c r="D22" s="33"/>
       <c r="F22" s="14"/>
       <c r="G22" s="4"/>
-      <c r="H22" s="21" t="str">
+      <c r="H22" s="19" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1442,10 +1454,10 @@
       <c r="A23" s="3"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
-      <c r="D23" s="18"/>
+      <c r="D23" s="33"/>
       <c r="F23" s="14"/>
       <c r="G23" s="4"/>
-      <c r="H23" s="21" t="str">
+      <c r="H23" s="19" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1463,16 +1475,16 @@
       <c r="A24" s="3"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
-      <c r="D24" s="18"/>
+      <c r="D24" s="33"/>
       <c r="F24" s="14"/>
       <c r="G24" s="4"/>
-      <c r="H24" s="21" t="str">
+      <c r="H24" s="19" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J24" s="10"/>
       <c r="K24" s="4"/>
-      <c r="L24" s="22" t="str">
+      <c r="L24" s="20" t="str">
         <f>IFERROR(IF(K24/SUM($C$10:$C$13)=0,"",K24/SUM($C$10:$C$13)),"")</f>
         <v/>
       </c>
@@ -1481,16 +1493,16 @@
       <c r="A25" s="3"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
-      <c r="D25" s="18"/>
+      <c r="D25" s="33"/>
       <c r="F25" s="14"/>
       <c r="G25" s="4"/>
-      <c r="H25" s="21" t="str">
+      <c r="H25" s="19" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J25" s="10"/>
       <c r="K25" s="4"/>
-      <c r="L25" s="22" t="str">
+      <c r="L25" s="20" t="str">
         <f t="shared" ref="L25:L32" si="2">IFERROR(IF(K25/SUM($C$10:$C$13)=0,"",K25/SUM($C$10:$C$13)),"")</f>
         <v/>
       </c>
@@ -1499,16 +1511,16 @@
       <c r="A26" s="3"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
-      <c r="D26" s="18"/>
+      <c r="D26" s="33"/>
       <c r="F26" s="14"/>
       <c r="G26" s="4"/>
-      <c r="H26" s="21" t="str">
+      <c r="H26" s="19" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J26" s="10"/>
       <c r="K26" s="4"/>
-      <c r="L26" s="22" t="str">
+      <c r="L26" s="20" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -1517,16 +1529,16 @@
       <c r="A27" s="3"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
-      <c r="D27" s="18"/>
+      <c r="D27" s="33"/>
       <c r="F27" s="14"/>
       <c r="G27" s="4"/>
-      <c r="H27" s="21" t="str">
+      <c r="H27" s="19" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J27" s="10"/>
       <c r="K27" s="4"/>
-      <c r="L27" s="22" t="str">
+      <c r="L27" s="20" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -1535,16 +1547,16 @@
       <c r="A28" s="3"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
-      <c r="D28" s="18"/>
+      <c r="D28" s="33"/>
       <c r="F28" s="14"/>
       <c r="G28" s="4"/>
-      <c r="H28" s="21" t="str">
+      <c r="H28" s="19" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J28" s="10"/>
       <c r="K28" s="4"/>
-      <c r="L28" s="22" t="str">
+      <c r="L28" s="20" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -1553,16 +1565,16 @@
       <c r="A29" s="3"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
-      <c r="D29" s="18"/>
+      <c r="D29" s="33"/>
       <c r="F29" s="14"/>
       <c r="G29" s="4"/>
-      <c r="H29" s="21" t="str">
+      <c r="H29" s="19" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J29" s="10"/>
       <c r="K29" s="4"/>
-      <c r="L29" s="22" t="str">
+      <c r="L29" s="20" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -1571,16 +1583,16 @@
       <c r="A30" s="3"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
-      <c r="D30" s="18"/>
+      <c r="D30" s="33"/>
       <c r="F30" s="14"/>
       <c r="G30" s="4"/>
-      <c r="H30" s="21" t="str">
+      <c r="H30" s="19" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J30" s="10"/>
       <c r="K30" s="4"/>
-      <c r="L30" s="22" t="str">
+      <c r="L30" s="20" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -1589,16 +1601,16 @@
       <c r="A31" s="3"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
-      <c r="D31" s="18"/>
+      <c r="D31" s="33"/>
       <c r="F31" s="14"/>
       <c r="G31" s="4"/>
-      <c r="H31" s="21" t="str">
+      <c r="H31" s="19" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J31" s="10"/>
       <c r="K31" s="4"/>
-      <c r="L31" s="22" t="str">
+      <c r="L31" s="20" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -1607,22 +1619,22 @@
       <c r="A32" s="3"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
-      <c r="D32" s="18"/>
+      <c r="D32" s="33"/>
       <c r="F32" s="14"/>
       <c r="G32" s="4"/>
-      <c r="H32" s="21" t="str">
+      <c r="H32" s="19" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J32" s="11"/>
       <c r="K32" s="4"/>
-      <c r="L32" s="22" t="str">
+      <c r="L32" s="20" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="33" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D33" s="19"/>
+      <c r="D33" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1651,8 +1663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F8952ED-1404-4B10-978A-2AC826903C7B}">
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView showGridLines="0" showRuler="0" view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1669,18 +1681,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="24">
+      <c r="B1" s="22">
         <f>IF(SUM($C$10:$C$13)=0,"",SUM($C$10:$C$13))</f>
         <v>7986</v>
       </c>
-      <c r="C1" s="25">
+      <c r="C1" s="23">
         <f>SUM($C$3:$C$5)</f>
         <v>1</v>
       </c>
-      <c r="D1" s="26">
+      <c r="D1" s="24">
         <f>IF(SUM($D$3:$D$5)=0,"",SUM($D$3:$D$5))</f>
         <v>0.8765452041071875</v>
       </c>
@@ -1708,16 +1720,16 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="26" t="s">
         <v>7</v>
       </c>
       <c r="F2" s="2" t="s">
@@ -1740,17 +1752,17 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="16">
+      <c r="B3" s="34">
         <f>IF(SUM($G$3:$G$32)=0,"",SUM($G$3:$G$32))</f>
         <v>5738.11</v>
       </c>
-      <c r="C3" s="17">
+      <c r="C3" s="16">
         <v>0.5</v>
       </c>
-      <c r="D3" s="30">
+      <c r="D3" s="28">
         <f>IF(SUM($H$3:$H$32)=0,"",SUM($H$3:$H$32))</f>
         <v>0.71852116203355865</v>
       </c>
@@ -1760,106 +1772,106 @@
       <c r="G3" s="4">
         <v>2900</v>
       </c>
-      <c r="H3" s="21">
+      <c r="H3" s="19">
         <f>IFERROR(IF(G3/SUM($C$10:$C$13)=0,"",G3/SUM($C$10:$C$13)),"")</f>
         <v>0.36313548710242927</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K3" s="4">
         <v>10.99</v>
       </c>
-      <c r="L3" s="21">
+      <c r="L3" s="19">
         <f>IFERROR(IF(K3/SUM($C$10:$C$13)=0,"",K3/SUM($C$10:$C$13)),"")</f>
         <v>1.3761582769847233E-3</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="16">
+      <c r="B4" s="34">
         <f>IF(SUM($K$3:$K$20)=0,"",SUM($K$3:$K$20))</f>
         <v>319.98</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="16">
         <v>0.3</v>
       </c>
-      <c r="D4" s="30">
+      <c r="D4" s="28">
         <f>IF(SUM($L$3:$L$20)=0,"",SUM($L$3:$L$20))</f>
         <v>4.006761833208114E-2</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G4" s="4">
         <v>18</v>
       </c>
-      <c r="H4" s="21">
+      <c r="H4" s="19">
         <f t="shared" ref="H4:H32" si="0">IFERROR(IF(G4/SUM($C$10:$C$13)=0,"",G4/SUM($C$10:$C$13)),"")</f>
         <v>2.2539444027047332E-3</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K4" s="4">
         <v>8.99</v>
       </c>
-      <c r="L4" s="21">
+      <c r="L4" s="19">
         <f t="shared" ref="L4:L20" si="1">IFERROR(IF(K4/SUM($C$10:$C$13)=0,"",K4/SUM($C$10:$C$13)),"")</f>
         <v>1.1257200100175306E-3</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B5" s="34">
         <f>IF(SUM($K$24:$K$32)=0,"",SUM($K$24:$K$32))</f>
         <v>942</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="16">
         <v>0.2</v>
       </c>
-      <c r="D5" s="30">
+      <c r="D5" s="28">
         <f>IF(SUM($L$24:$L$32)=0,"",SUM($L$24:$L$32))</f>
         <v>0.1179564237415477</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G5" s="4">
         <v>0</v>
       </c>
-      <c r="H5" s="21" t="str">
+      <c r="H5" s="19" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J5" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K5" s="4">
         <v>150</v>
       </c>
-      <c r="L5" s="21">
+      <c r="L5" s="19">
         <f t="shared" si="1"/>
         <v>1.8782870022539443E-2</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="32">
+      <c r="B6" s="30">
         <f>IF(SUM($C$10:$C$13)=0,"",SUM($C$10:$C$13)-SUM($B$3:$B$5))</f>
         <v>985.90999999999985</v>
       </c>
-      <c r="C6" s="33">
+      <c r="C6" s="31">
         <f>1-SUM($C$3:$C$5)</f>
         <v>0</v>
       </c>
-      <c r="D6" s="34">
+      <c r="D6" s="32">
         <f>IF(SUM($D$3:$D$5)=0,"",1-SUM($D$3:$D$5))</f>
         <v>0.1234547958928125</v>
       </c>
@@ -1869,17 +1881,17 @@
       <c r="G6" s="4">
         <v>600</v>
       </c>
-      <c r="H6" s="21">
+      <c r="H6" s="19">
         <f t="shared" si="0"/>
         <v>7.5131480090157771E-2</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K6" s="4">
         <v>150</v>
       </c>
-      <c r="L6" s="21">
+      <c r="L6" s="19">
         <f t="shared" si="1"/>
         <v>1.8782870022539443E-2</v>
       </c>
@@ -1887,27 +1899,27 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B7" s="5"/>
       <c r="F7" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G7" s="4">
         <v>535.70000000000005</v>
       </c>
-      <c r="H7" s="21">
+      <c r="H7" s="19">
         <f t="shared" si="0"/>
         <v>6.7079889807162535E-2</v>
       </c>
       <c r="J7" s="3"/>
       <c r="K7" s="4"/>
-      <c r="L7" s="21" t="str">
+      <c r="L7" s="19" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8" s="38"/>
+      <c r="A8" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="37"/>
       <c r="C8" s="7">
         <f>IF(SUM($C$10:$C$13)=0,"",SUM($C$10:$C$13))</f>
         <v>7986</v>
@@ -1917,27 +1929,27 @@
         <v>1</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G8" s="4">
         <v>141</v>
       </c>
-      <c r="H8" s="21">
+      <c r="H8" s="19">
         <f t="shared" si="0"/>
         <v>1.7655897821187077E-2</v>
       </c>
       <c r="J8" s="3"/>
       <c r="K8" s="4"/>
-      <c r="L8" s="21" t="str">
+      <c r="L8" s="19" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="39" t="s">
+      <c r="A9" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="39"/>
+      <c r="B9" s="38"/>
       <c r="C9" s="1" t="s">
         <v>6</v>
       </c>
@@ -1945,110 +1957,110 @@
         <v>7</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G9" s="4">
         <v>150</v>
       </c>
-      <c r="H9" s="21">
+      <c r="H9" s="19">
         <f t="shared" si="0"/>
         <v>1.8782870022539443E-2</v>
       </c>
       <c r="J9" s="3"/>
       <c r="K9" s="4"/>
-      <c r="L9" s="21" t="str">
+      <c r="L9" s="19" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="37"/>
+      <c r="A10" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="36"/>
       <c r="C10" s="10">
         <v>3262</v>
       </c>
-      <c r="D10" s="20">
+      <c r="D10" s="18">
         <f>IF(ISBLANK($C$10),"",$C$10/$C$8)</f>
         <v>0.40846481342349111</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G10" s="4">
         <v>0</v>
       </c>
-      <c r="H10" s="21" t="str">
+      <c r="H10" s="19" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J10" s="3"/>
       <c r="K10" s="4"/>
-      <c r="L10" s="21" t="str">
+      <c r="L10" s="19" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="37"/>
+      <c r="A11" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="36"/>
       <c r="C11" s="10">
         <v>4724</v>
       </c>
-      <c r="D11" s="20">
+      <c r="D11" s="18">
         <f>IF(ISBLANK($C$11),"",$C$11/$C$8)</f>
         <v>0.59153518657650894</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G11" s="4">
         <v>0</v>
       </c>
-      <c r="H11" s="21" t="str">
+      <c r="H11" s="19" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J11" s="3"/>
       <c r="K11" s="4"/>
-      <c r="L11" s="21" t="str">
+      <c r="L11" s="19" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="36"/>
-      <c r="B12" s="37"/>
+      <c r="A12" s="35"/>
+      <c r="B12" s="36"/>
       <c r="C12" s="10"/>
-      <c r="D12" s="20" t="str">
+      <c r="D12" s="18" t="str">
         <f>IF(ISBLANK($C$12),"",$C$12/$C$8)</f>
         <v/>
       </c>
       <c r="F12" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G12" s="4">
         <v>130</v>
       </c>
-      <c r="H12" s="21">
+      <c r="H12" s="19">
         <f t="shared" si="0"/>
         <v>1.6278487352867518E-2</v>
       </c>
       <c r="J12" s="3"/>
       <c r="K12" s="4"/>
-      <c r="L12" s="21" t="str">
+      <c r="L12" s="19" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="36"/>
-      <c r="B13" s="37"/>
+      <c r="A13" s="35"/>
+      <c r="B13" s="36"/>
       <c r="C13" s="10"/>
-      <c r="D13" s="20" t="str">
+      <c r="D13" s="18" t="str">
         <f>IF(ISBLANK($C$13),"",$C$13/$C$8)</f>
         <v/>
       </c>
@@ -2058,31 +2070,31 @@
       <c r="G13" s="4">
         <v>152</v>
       </c>
-      <c r="H13" s="21">
+      <c r="H13" s="19">
         <f t="shared" si="0"/>
         <v>1.9033308289506636E-2</v>
       </c>
       <c r="J13" s="3"/>
       <c r="K13" s="4"/>
-      <c r="L13" s="21" t="str">
+      <c r="L13" s="19" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F14" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G14" s="4">
         <v>190</v>
       </c>
-      <c r="H14" s="21">
+      <c r="H14" s="19">
         <f t="shared" si="0"/>
         <v>2.3791635361883296E-2</v>
       </c>
       <c r="J14" s="3"/>
       <c r="K14" s="4"/>
-      <c r="L14" s="21" t="str">
+      <c r="L14" s="19" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -2101,18 +2113,18 @@
       </c>
       <c r="D15" s="8"/>
       <c r="F15" s="14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G15" s="4">
         <v>150</v>
       </c>
-      <c r="H15" s="21">
+      <c r="H15" s="19">
         <f t="shared" si="0"/>
         <v>1.8782870022539443E-2</v>
       </c>
       <c r="J15" s="3"/>
       <c r="K15" s="4"/>
-      <c r="L15" s="21" t="str">
+      <c r="L15" s="19" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -2131,25 +2143,25 @@
         <v>10</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G16" s="4">
         <v>246.41</v>
       </c>
-      <c r="H16" s="21">
+      <c r="H16" s="19">
         <f t="shared" si="0"/>
         <v>3.0855246681692962E-2</v>
       </c>
       <c r="J16" s="3"/>
       <c r="K16" s="4"/>
-      <c r="L16" s="21" t="str">
+      <c r="L16" s="19" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17" s="4">
         <v>28152</v>
@@ -2157,29 +2169,29 @@
       <c r="C17" s="4">
         <v>535.70000000000005</v>
       </c>
-      <c r="D17" s="35">
+      <c r="D17" s="33">
         <v>0.1099</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G17" s="4">
         <v>25</v>
       </c>
-      <c r="H17" s="21">
+      <c r="H17" s="19">
         <f t="shared" si="0"/>
         <v>3.1304783370899075E-3</v>
       </c>
       <c r="J17" s="3"/>
       <c r="K17" s="4"/>
-      <c r="L17" s="21" t="str">
+      <c r="L17" s="19" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B18" s="4">
         <v>261</v>
@@ -2187,29 +2199,29 @@
       <c r="C18" s="4">
         <v>26</v>
       </c>
-      <c r="D18" s="35">
+      <c r="D18" s="33">
         <v>0</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G18" s="4">
         <v>500</v>
       </c>
-      <c r="H18" s="21">
+      <c r="H18" s="19">
         <f t="shared" si="0"/>
         <v>6.2609566741798142E-2</v>
       </c>
       <c r="J18" s="3"/>
       <c r="K18" s="4"/>
-      <c r="L18" s="21" t="str">
+      <c r="L18" s="19" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B19" s="4">
         <v>261</v>
@@ -2217,25 +2229,25 @@
       <c r="C19" s="4">
         <v>26</v>
       </c>
-      <c r="D19" s="35">
+      <c r="D19" s="33">
         <v>0</v>
       </c>
       <c r="F19" s="14"/>
       <c r="G19" s="4"/>
-      <c r="H19" s="21" t="str">
+      <c r="H19" s="19" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J19" s="3"/>
       <c r="K19" s="4"/>
-      <c r="L19" s="21" t="str">
+      <c r="L19" s="19" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B20" s="4">
         <v>8450</v>
@@ -2243,25 +2255,25 @@
       <c r="C20" s="4">
         <v>246.41</v>
       </c>
-      <c r="D20" s="35">
+      <c r="D20" s="33">
         <v>0.23</v>
       </c>
       <c r="F20" s="14"/>
       <c r="G20" s="4"/>
-      <c r="H20" s="21" t="str">
+      <c r="H20" s="19" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J20" s="3"/>
       <c r="K20" s="4"/>
-      <c r="L20" s="21" t="str">
+      <c r="L20" s="19" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B21" s="4">
         <v>794</v>
@@ -2269,19 +2281,19 @@
       <c r="C21" s="4">
         <v>25</v>
       </c>
-      <c r="D21" s="35">
+      <c r="D21" s="33">
         <v>0.22</v>
       </c>
       <c r="F21" s="14"/>
       <c r="G21" s="4"/>
-      <c r="H21" s="21" t="str">
+      <c r="H21" s="19" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B22" s="4">
         <v>8500</v>
@@ -2289,12 +2301,12 @@
       <c r="C22" s="4">
         <v>500</v>
       </c>
-      <c r="D22" s="35">
+      <c r="D22" s="33">
         <v>0</v>
       </c>
       <c r="F22" s="14"/>
       <c r="G22" s="4"/>
-      <c r="H22" s="21" t="str">
+      <c r="H22" s="19" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2314,10 +2326,10 @@
       <c r="A23" s="3"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
-      <c r="D23" s="35"/>
+      <c r="D23" s="33"/>
       <c r="F23" s="14"/>
       <c r="G23" s="4"/>
-      <c r="H23" s="21" t="str">
+      <c r="H23" s="19" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2335,20 +2347,20 @@
       <c r="A24" s="3"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
-      <c r="D24" s="35"/>
+      <c r="D24" s="33"/>
       <c r="F24" s="14"/>
       <c r="G24" s="4"/>
-      <c r="H24" s="21" t="str">
+      <c r="H24" s="19" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J24" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K24" s="4">
         <v>442</v>
       </c>
-      <c r="L24" s="22">
+      <c r="L24" s="20">
         <f>IFERROR(IF(K24/SUM($C$10:$C$13)=0,"",K24/SUM($C$10:$C$13)),"")</f>
         <v>5.5346856999749561E-2</v>
       </c>
@@ -2357,20 +2369,20 @@
       <c r="A25" s="3"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
-      <c r="D25" s="35"/>
+      <c r="D25" s="33"/>
       <c r="F25" s="14"/>
       <c r="G25" s="4"/>
-      <c r="H25" s="21" t="str">
+      <c r="H25" s="19" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J25" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K25" s="4">
         <v>500</v>
       </c>
-      <c r="L25" s="22">
+      <c r="L25" s="20">
         <f t="shared" ref="L25:L32" si="2">IFERROR(IF(K25/SUM($C$10:$C$13)=0,"",K25/SUM($C$10:$C$13)),"")</f>
         <v>6.2609566741798142E-2</v>
       </c>
@@ -2379,16 +2391,16 @@
       <c r="A26" s="3"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
-      <c r="D26" s="35"/>
+      <c r="D26" s="33"/>
       <c r="F26" s="14"/>
       <c r="G26" s="4"/>
-      <c r="H26" s="21" t="str">
+      <c r="H26" s="19" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J26" s="10"/>
       <c r="K26" s="4"/>
-      <c r="L26" s="22" t="str">
+      <c r="L26" s="20" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -2397,16 +2409,16 @@
       <c r="A27" s="3"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
-      <c r="D27" s="35"/>
+      <c r="D27" s="33"/>
       <c r="F27" s="14"/>
       <c r="G27" s="4"/>
-      <c r="H27" s="21" t="str">
+      <c r="H27" s="19" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J27" s="10"/>
       <c r="K27" s="4"/>
-      <c r="L27" s="22" t="str">
+      <c r="L27" s="20" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -2415,16 +2427,16 @@
       <c r="A28" s="3"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
-      <c r="D28" s="35"/>
+      <c r="D28" s="33"/>
       <c r="F28" s="14"/>
       <c r="G28" s="4"/>
-      <c r="H28" s="21" t="str">
+      <c r="H28" s="19" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J28" s="10"/>
       <c r="K28" s="4"/>
-      <c r="L28" s="22" t="str">
+      <c r="L28" s="20" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -2433,16 +2445,16 @@
       <c r="A29" s="3"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
-      <c r="D29" s="35"/>
+      <c r="D29" s="33"/>
       <c r="F29" s="14"/>
       <c r="G29" s="4"/>
-      <c r="H29" s="21" t="str">
+      <c r="H29" s="19" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J29" s="10"/>
       <c r="K29" s="4"/>
-      <c r="L29" s="22" t="str">
+      <c r="L29" s="20" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -2451,16 +2463,16 @@
       <c r="A30" s="3"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
-      <c r="D30" s="35"/>
+      <c r="D30" s="33"/>
       <c r="F30" s="14"/>
       <c r="G30" s="4"/>
-      <c r="H30" s="21" t="str">
+      <c r="H30" s="19" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J30" s="10"/>
       <c r="K30" s="4"/>
-      <c r="L30" s="22" t="str">
+      <c r="L30" s="20" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -2469,16 +2481,16 @@
       <c r="A31" s="3"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
-      <c r="D31" s="35"/>
+      <c r="D31" s="33"/>
       <c r="F31" s="14"/>
       <c r="G31" s="4"/>
-      <c r="H31" s="21" t="str">
+      <c r="H31" s="19" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J31" s="10"/>
       <c r="K31" s="4"/>
-      <c r="L31" s="22" t="str">
+      <c r="L31" s="20" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -2487,22 +2499,22 @@
       <c r="A32" s="3"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
-      <c r="D32" s="35"/>
+      <c r="D32" s="33"/>
       <c r="F32" s="14"/>
       <c r="G32" s="4"/>
-      <c r="H32" s="21" t="str">
+      <c r="H32" s="19" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J32" s="11"/>
       <c r="K32" s="4"/>
-      <c r="L32" s="22" t="str">
+      <c r="L32" s="20" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="33" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D33" s="19"/>
+      <c r="D33" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2521,8 +2533,8 @@
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;"-,Bold"&amp;16 Name(s): 
-&amp;C&amp;"-,Bold"&amp;16Age(s): &amp;R&amp;"-,Bold"&amp;16Monthy Budget</oddHeader>
+    <oddHeader>&amp;L&amp;"-,Bold"&amp;16 Name(s): Person 1/Person 2
+&amp;C&amp;"-,Bold"&amp;16Age(s): 34/36&amp;R&amp;"-,Bold"&amp;16Monthy Budget</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
--- a/templates/Budget_Template.xlsx
+++ b/templates/Budget_Template.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2fc653c6d4474c51/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="578" documentId="8_{9B696197-91AE-4C60-9EEA-46D1F7A0FB97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A135F9F0-6730-43CE-B787-4899859C444C}"/>
+  <xr:revisionPtr revIDLastSave="620" documentId="8_{9B696197-91AE-4C60-9EEA-46D1F7A0FB97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1151C116-56C7-4DEC-8AEC-A05701E73F10}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E780DB9C-E604-423C-A489-BF9A4A4C267E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{E780DB9C-E604-423C-A489-BF9A4A4C267E}"/>
   </bookViews>
   <sheets>
     <sheet name="Template_Debt_Only" sheetId="3" r:id="rId1"/>
-    <sheet name="Template_Debt_Only_Example" sheetId="4" r:id="rId2"/>
+    <sheet name="Template_Debt_Assets" sheetId="5" r:id="rId2"/>
+    <sheet name="Template_Debt_Only_Example" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="50">
   <si>
     <t>Category</t>
   </si>
@@ -182,6 +182,12 @@
   </si>
   <si>
     <t>Other Utilies</t>
+  </si>
+  <si>
+    <t>Assets</t>
+  </si>
+  <si>
+    <t>Amount</t>
   </si>
 </sst>
 </file>
@@ -250,7 +256,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -459,12 +465,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14990691854609822"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14993743705557422"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14993743705557422"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -530,6 +549,21 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -537,7 +571,12 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -893,8 +932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{596E9CBE-398A-40E9-875B-30ED4812A3CF}">
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView showGridLines="0" showRuler="0" view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -915,7 +954,7 @@
         <v>13</v>
       </c>
       <c r="B1" s="22" t="str">
-        <f>IF(SUM($C$10:$C$13)=0,"",SUM($C$10:$C$13))</f>
+        <f>IF(SUM($B$3:$B$5)=0,"",SUM($B$3:$B$5))</f>
         <v/>
       </c>
       <c r="C1" s="23">
@@ -1646,7 +1685,7 @@
     <mergeCell ref="A12:B12"/>
   </mergeCells>
   <conditionalFormatting sqref="B6">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1660,11 +1699,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F8952ED-1404-4B10-978A-2AC826903C7B}">
-  <dimension ref="A1:L33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85013323-C9E9-44D3-BE08-7C0B387350B9}">
+  <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView showGridLines="0" showRuler="0" view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="A9" sqref="A9:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1684,9 +1723,796 @@
       <c r="A1" s="21" t="s">
         <v>13</v>
       </c>
+      <c r="B1" s="22" t="str">
+        <f>IF(SUM($B$3:$B$5)=0,"",SUM($B$3:$B$5))</f>
+        <v/>
+      </c>
+      <c r="C1" s="23">
+        <f>SUM($C$3:$C$5)</f>
+        <v>1</v>
+      </c>
+      <c r="D1" s="24" t="str">
+        <f>IF(SUM($D$3:$D$5)=0,"",SUM($D$3:$D$5))</f>
+        <v/>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="9" t="str">
+        <f>IF(SUM($G$3:$G$32)=0,"",SUM($G$3:$G$32))</f>
+        <v/>
+      </c>
+      <c r="H1" s="12" t="str">
+        <f>IF(SUM($H$3:$H$32)=0,"",SUM($H$3:$H$32))</f>
+        <v/>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="9" t="str">
+        <f>IF(SUM($K$3:$K$20)=0,"",SUM($K$3:$K$20))</f>
+        <v/>
+      </c>
+      <c r="L1" s="12" t="str">
+        <f>IF(SUM($L$3:$L$20)=0,"",SUM($L$3:$L$20))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="34" t="str">
+        <f>IF(SUM($G$3:$G$32)=0,"",SUM($G$3:$G$32))</f>
+        <v/>
+      </c>
+      <c r="C3" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="D3" s="28" t="str">
+        <f>IF(SUM($H$3:$H$32)=0,"",SUM($H$3:$H$32))</f>
+        <v/>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="4"/>
+      <c r="H3" s="19" t="str">
+        <f>IFERROR(IF(G3/SUM($C$10:$C$13)=0,"",G3/SUM($C$10:$C$13)),"")</f>
+        <v/>
+      </c>
+      <c r="J3" s="3"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="19" t="str">
+        <f>IFERROR(IF(K3/SUM($C$10:$C$13)=0,"",K3/SUM($C$10:$C$13)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="34" t="str">
+        <f>IF(SUM($K$3:$K$20)=0,"",SUM($K$3:$K$20))</f>
+        <v/>
+      </c>
+      <c r="C4" s="16">
+        <v>0.3</v>
+      </c>
+      <c r="D4" s="28" t="str">
+        <f>IF(SUM($L$3:$L$20)=0,"",SUM($L$3:$L$20))</f>
+        <v/>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="19" t="str">
+        <f t="shared" ref="H4:H32" si="0">IFERROR(IF(G4/SUM($C$10:$C$13)=0,"",G4/SUM($C$10:$C$13)),"")</f>
+        <v/>
+      </c>
+      <c r="J4" s="3"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="19" t="str">
+        <f t="shared" ref="L4:L20" si="1">IFERROR(IF(K4/SUM($C$10:$C$13)=0,"",K4/SUM($C$10:$C$13)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="34" t="str">
+        <f>IF(SUM($K$24:$K$32)=0,"",SUM($K$24:$K$32))</f>
+        <v/>
+      </c>
+      <c r="C5" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="D5" s="28" t="str">
+        <f>IF(SUM($L$24:$L$32)=0,"",SUM($L$24:$L$32))</f>
+        <v/>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J5" s="3"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="30" t="str">
+        <f>IF(SUM($C$10:$C$13)=0,"",SUM($C$10:$C$13)-SUM($B$3:$B$5))</f>
+        <v/>
+      </c>
+      <c r="C6" s="31">
+        <f>1-SUM($C$3:$C$5)</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="32" t="str">
+        <f>IF(SUM($D$3:$D$5)=0,"",1-SUM($D$3:$D$5))</f>
+        <v/>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J6" s="3"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B7" s="5"/>
+      <c r="F7" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J7" s="3"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="37"/>
+      <c r="C8" s="7" t="str">
+        <f>IF(SUM($C$10:$C$13)=0,"",SUM($C$10:$C$13))</f>
+        <v/>
+      </c>
+      <c r="D8" s="12" t="str">
+        <f>IF(SUM($D$10:$D$13)=0,"",SUM($D$10:$D$13))</f>
+        <v/>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J8" s="3"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="38"/>
+      <c r="C9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J9" s="3"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="35"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="18" t="str">
+        <f>IF(ISBLANK($C$10),"",$C$10/$C$8)</f>
+        <v/>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J10" s="3"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="35"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="18" t="str">
+        <f>IF(ISBLANK($C$11),"",$C$11/$C$8)</f>
+        <v/>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="4"/>
+      <c r="H11" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J11" s="3"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="35"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="18" t="str">
+        <f>IF(ISBLANK($C$12),"",$C$12/$C$8)</f>
+        <v/>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="4"/>
+      <c r="H12" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J12" s="3"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="35"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="18" t="str">
+        <f>IF(ISBLANK($C$13),"",$C$13/$C$8)</f>
+        <v/>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="4"/>
+      <c r="H13" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J13" s="3"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F14" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14" s="4"/>
+      <c r="H14" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J14" s="3"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="9" t="str">
+        <f>IF(SUM($B$17:$B$23)=0,"",SUM($B$17:$B$23))</f>
+        <v/>
+      </c>
+      <c r="C15" s="9" t="str">
+        <f>IF(SUM($C$17:$C$23)=0,"",SUM($C$17:$C$23))</f>
+        <v/>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="F15" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="G15" s="4"/>
+      <c r="H15" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J15" s="3"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="G16" s="4"/>
+      <c r="H16" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J16" s="3"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="33"/>
+      <c r="F17" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="G17" s="4"/>
+      <c r="H17" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J17" s="3"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="33"/>
+      <c r="F18" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="G18" s="4"/>
+      <c r="H18" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J18" s="3"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="33"/>
+      <c r="F19" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="G19" s="4"/>
+      <c r="H19" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J19" s="3"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="33"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J20" s="3"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="33"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="33"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K22" s="9" t="str">
+        <f>IF(SUM($K$24:$K$32)=0,"",SUM($K$24:$K$32))</f>
+        <v/>
+      </c>
+      <c r="L22" s="12" t="str">
+        <f>IF(SUM($L$24:$L$32)=0,"",SUM($L$24:$L$32))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="33"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F24" s="14"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J24" s="10"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="20" t="str">
+        <f>IFERROR(IF(K24/SUM($C$10:$C$13)=0,"",K24/SUM($C$10:$C$13)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="9"/>
+      <c r="C25" s="39" t="str">
+        <f>IF(SUM($C$27:$D$32)=0,"",SUM($C$27:$D$32))</f>
+        <v/>
+      </c>
+      <c r="D25" s="39"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J25" s="10"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="20" t="str">
+        <f t="shared" ref="L25:L32" si="2">IFERROR(IF(K25/SUM($C$10:$C$13)=0,"",K25/SUM($C$10:$C$13)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="38"/>
+      <c r="C26" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" s="38"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J26" s="10"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="42"/>
+      <c r="B27" s="43"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="41"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J27" s="10"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="42"/>
+      <c r="B28" s="43"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="41"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J28" s="10"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="42"/>
+      <c r="B29" s="43"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="41"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J29" s="10"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="42"/>
+      <c r="B30" s="43"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="41"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J30" s="10"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="42"/>
+      <c r="B31" s="43"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="41"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J31" s="10"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="42"/>
+      <c r="B32" s="43"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="41"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J32" s="11"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="21">
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+  </mergeCells>
+  <conditionalFormatting sqref="B6">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;"-,Bold"&amp;16 Name(s): 
+&amp;C&amp;"-,Bold"&amp;16Age(s): &amp;R&amp;"-,Bold"&amp;16Monthy Budget</oddHeader>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F8952ED-1404-4B10-978A-2AC826903C7B}">
+  <dimension ref="A1:L33"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="2" max="4" width="12" customWidth="1"/>
+    <col min="5" max="5" width="2" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" style="15" customWidth="1"/>
+    <col min="7" max="8" width="12" customWidth="1"/>
+    <col min="9" max="9" width="2" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" customWidth="1"/>
+    <col min="11" max="12" width="12" customWidth="1"/>
+    <col min="14" max="14" width="0.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
+        <v>13</v>
+      </c>
       <c r="B1" s="22">
-        <f>IF(SUM($C$10:$C$13)=0,"",SUM($C$10:$C$13))</f>
-        <v>7986</v>
+        <f>IF(SUM($B$3:$B$5)=0,"",SUM($B$3:$B$5))</f>
+        <v>7000.09</v>
       </c>
       <c r="C1" s="23">
         <f>SUM($C$3:$C$5)</f>
